--- a/biology/Botanique/Goniolimon_tataricum/Goniolimon_tataricum.xlsx
+++ b/biology/Botanique/Goniolimon_tataricum/Goniolimon_tataricum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniolimon tataricum, le statice vivace, est une espèce de plante de la famille des Plumbaginaceae et du genre Goniolimon.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goniolimon tataricum est une plante vivace atteignant 40 cm[2] aux feuilles radicales, oblongues, lancéolées, à la hampe rameuse, divisée en un corymbe paniculé de fleurs, rapprochées en épis courts et serrés[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goniolimon tataricum est une plante vivace atteignant 40 cm aux feuilles radicales, oblongues, lancéolées, à la hampe rameuse, divisée en un corymbe paniculé de fleurs, rapprochées en épis courts et serrés.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goniolimon tataricum est présente dans les Balkans, en Algérie, au Kazakhstan, dans le Caucase du Nord, en Roumanie, en Tunisie, en Ukraine[2].
-Elle pousse notamment dans les zones chaudes et sèches[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goniolimon tataricum est présente dans les Balkans, en Algérie, au Kazakhstan, dans le Caucase du Nord, en Roumanie, en Tunisie, en Ukraine.
+Elle pousse notamment dans les zones chaudes et sèches.
 </t>
         </is>
       </c>
@@ -574,17 +590,19 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Goniolimon tataricum a pour sous-espèces :
-Goniolimon tataricum subsp. besserianum (Rchb.) Nyman[4]
-Goniolimon tataricum subsp. croaticum Buzurovic &amp; Bogdanovic[4]
-Goniolimon tataricum subsp. graecum Buzurovic[4]
-Goniolimon tataricum subsp. italicum (Tammaro, Pignatti &amp; Frizzi) Buzurovic[4]
-Goniolimon tataricum subsp. tataricum[4]
+Goniolimon tataricum subsp. besserianum (Rchb.) Nyman
+Goniolimon tataricum subsp. croaticum Buzurovic &amp; Bogdanovic
+Goniolimon tataricum subsp. graecum Buzurovic
+Goniolimon tataricum subsp. italicum (Tammaro, Pignatti &amp; Frizzi) Buzurovic
+Goniolimon tataricum subsp. tataricum
 Goniolimon tataricum a pour variétés :
-Goniolimon tataricum var. platypterum (Klokov) Tzvelev[4]
-Goniolimon tataricum var. tauricum[4]</t>
+Goniolimon tataricum var. platypterum (Klokov) Tzvelev
+Goniolimon tataricum var. tauricum</t>
         </is>
       </c>
     </row>
@@ -612,9 +630,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasites Staticobium latifoliae[5], Phloeospora jaapiana (sv), Erysiphe limonii, Peronospora statices, Uromyces limonii[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasites Staticobium latifoliae, Phloeospora jaapiana (sv), Erysiphe limonii, Peronospora statices, Uromyces limonii.
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goniolimon tataricum est cultivée[2] et fréquemment utilisée dans les compositions de bouquets[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goniolimon tataricum est cultivée et fréquemment utilisée dans les compositions de bouquets.
 </t>
         </is>
       </c>
